--- a/Country Data Codes.ext.xlsx
+++ b/Country Data Codes.ext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\__coding__\hanteng\country-profiles-clean-up\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5B6537-21FB-4C72-A903-65E87BD31F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF634C1-1EEA-43B1-8BC2-3574B964BC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{50C61D40-CE31-42F7-AB40-083D1AC1046B}"/>
   </bookViews>
@@ -5504,9 +5504,6 @@
     <t>.tn</t>
   </si>
   <si>
-    <t>Turkey (Turkiye)</t>
-  </si>
-  <si>
     <t>TUR</t>
   </si>
   <si>
@@ -6921,6 +6918,9 @@
   </si>
   <si>
     <t>716</t>
+  </si>
+  <si>
+    <t>Turkey</t>
   </si>
 </sst>
 </file>
@@ -6958,7 +6958,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6981,6 +6981,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6996,7 +7002,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -7004,6 +7010,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -7012,7 +7019,7 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7039,7 +7046,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7101,17 +7108,17 @@
     <tableColumn id="2" xr3:uid="{CA527899-D80F-4437-968B-EBF9AA3F77FA}" uniqueName="2" name="Name" queryTableFieldId="2" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{4B16C7FF-16A5-4694-8D31-0BE8C5BF3BBA}" uniqueName="3" name="GENC" queryTableFieldId="3" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{989B085B-EBB3-4716-AC04-666B03E3F084}" uniqueName="4" name="alpha_2" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{597A48A0-D1ED-45BC-83C4-7FE3A9C5C575}" uniqueName="5" name="alpha_3" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C908DFC7-AC34-4E6B-8BD4-2616D1F76438}" uniqueName="6" name="numeric" queryTableFieldId="6" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{A5168AEE-5B52-4670-AB35-51D72429C905}" uniqueName="7" name="name_iso_official" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8A117881-1768-4BDC-A951-A137DF083946}" uniqueName="8" name="name_iso" queryTableFieldId="8" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{CDE83823-3C67-4838-8FCA-BA1C267F87A0}" uniqueName="9" name="name_CLDR_en" queryTableFieldId="9" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{28B70181-9824-4F61-BCD8-DE94708357CE}" uniqueName="10" name="name_CLDR_zh-Hans" queryTableFieldId="10" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{E08B0D0B-DF2F-4010-9FFE-C8E525B9C244}" uniqueName="11" name="name_CLDR_zh-Hant" queryTableFieldId="11" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{73136D31-0E5B-45BA-8B01-1015D247CB90}" uniqueName="12" name="ISO 3166" queryTableFieldId="12" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{C8733280-D3B3-4E53-9816-B7CB7C0B71F6}" uniqueName="13" name="Stanag" queryTableFieldId="13" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00DB2089-C840-4F67-8C74-64676681D0D0}" uniqueName="14" name="Internet" queryTableFieldId="14" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{44241D75-81BD-4FF0-9A2C-3D60C99A5DA9}" uniqueName="15" name="Comment" queryTableFieldId="15" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{597A48A0-D1ED-45BC-83C4-7FE3A9C5C575}" uniqueName="5" name="alpha_3" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C908DFC7-AC34-4E6B-8BD4-2616D1F76438}" uniqueName="6" name="numeric" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{A5168AEE-5B52-4670-AB35-51D72429C905}" uniqueName="7" name="name_iso_official" queryTableFieldId="7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{8A117881-1768-4BDC-A951-A137DF083946}" uniqueName="8" name="name_iso" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{CDE83823-3C67-4838-8FCA-BA1C267F87A0}" uniqueName="9" name="name_CLDR_en" queryTableFieldId="9" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{28B70181-9824-4F61-BCD8-DE94708357CE}" uniqueName="10" name="name_CLDR_zh-Hans" queryTableFieldId="10" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{E08B0D0B-DF2F-4010-9FFE-C8E525B9C244}" uniqueName="11" name="name_CLDR_zh-Hant" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{73136D31-0E5B-45BA-8B01-1015D247CB90}" uniqueName="12" name="ISO 3166" queryTableFieldId="12" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{C8733280-D3B3-4E53-9816-B7CB7C0B71F6}" uniqueName="13" name="Stanag" queryTableFieldId="13" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00DB2089-C840-4F67-8C74-64676681D0D0}" uniqueName="14" name="Internet" queryTableFieldId="14" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{44241D75-81BD-4FF0-9A2C-3D60C99A5DA9}" uniqueName="15" name="Comment" queryTableFieldId="15" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7417,7 +7424,7 @@
   <dimension ref="A1:O279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7500,7 +7507,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -7558,10 +7565,10 @@
         <v>Akrotiri</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>25</v>
@@ -7593,7 +7600,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
@@ -7640,7 +7647,7 @@
         <v>35</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
@@ -7687,7 +7694,7 @@
         <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
@@ -7734,7 +7741,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>52</v>
@@ -7781,7 +7788,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>60</v>
@@ -7828,7 +7835,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>22</v>
@@ -7875,7 +7882,7 @@
         <v>72</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>22</v>
@@ -7922,7 +7929,7 @@
         <v>80</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
@@ -7969,7 +7976,7 @@
         <v>88</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>90</v>
@@ -8016,7 +8023,7 @@
         <v>95</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>97</v>
@@ -8063,7 +8070,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
@@ -8121,10 +8128,10 @@
         <v>Ashmore and Cartier Islands</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>25</v>
@@ -8156,7 +8163,7 @@
         <v>111</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>22</v>
@@ -8203,7 +8210,7 @@
         <v>121</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>123</v>
@@ -8250,7 +8257,7 @@
         <v>129</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>131</v>
@@ -8297,7 +8304,7 @@
         <v>137</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>139</v>
@@ -8344,7 +8351,7 @@
         <v>146</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>148</v>
@@ -8402,10 +8409,10 @@
         <v>Baker Island</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>25</v>
@@ -8437,7 +8444,7 @@
         <v>157</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>159</v>
@@ -8484,7 +8491,7 @@
         <v>165</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>22</v>
@@ -8542,10 +8549,10 @@
         <v>Bassas da India</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>25</v>
@@ -8577,7 +8584,7 @@
         <v>175</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>177</v>
@@ -8624,7 +8631,7 @@
         <v>183</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>185</v>
@@ -8671,7 +8678,7 @@
         <v>191</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>22</v>
@@ -8718,7 +8725,7 @@
         <v>198</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>200</v>
@@ -8765,7 +8772,7 @@
         <v>206</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>22</v>
@@ -8812,7 +8819,7 @@
         <v>213</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>215</v>
@@ -8859,7 +8866,7 @@
         <v>220</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>222</v>
@@ -8906,7 +8913,7 @@
         <v>228</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>230</v>
@@ -8953,7 +8960,7 @@
         <v>237</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>239</v>
@@ -9000,7 +9007,7 @@
         <v>245</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>22</v>
@@ -9047,7 +9054,7 @@
         <v>252</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>254</v>
@@ -9094,7 +9101,7 @@
         <v>259</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>22</v>
@@ -9141,7 +9148,7 @@
         <v>266</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>265</v>
@@ -9188,7 +9195,7 @@
         <v>273</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>22</v>
@@ -9235,7 +9242,7 @@
         <v>280</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>282</v>
@@ -9282,7 +9289,7 @@
         <v>288</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>22</v>
@@ -9329,7 +9336,7 @@
         <v>295</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>297</v>
@@ -9376,7 +9383,7 @@
         <v>305</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>307</v>
@@ -9423,7 +9430,7 @@
         <v>313</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>315</v>
@@ -9470,7 +9477,7 @@
         <v>322</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>324</v>
@@ -9517,7 +9524,7 @@
         <v>329</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>331</v>
@@ -9564,7 +9571,7 @@
         <v>337</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>22</v>
@@ -9611,7 +9618,7 @@
         <v>343</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>22</v>
@@ -9658,7 +9665,7 @@
         <v>350</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>22</v>
@@ -9705,7 +9712,7 @@
         <v>357</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>359</v>
@@ -9752,7 +9759,7 @@
         <v>365</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>367</v>
@@ -9799,7 +9806,7 @@
         <v>372</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>374</v>
@@ -9846,7 +9853,7 @@
         <v>381</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>22</v>
@@ -9904,10 +9911,10 @@
         <v>Clipperton Island</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>2015</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>2016</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>2017</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>25</v>
@@ -9939,7 +9946,7 @@
         <v>392</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>22</v>
@@ -9986,7 +9993,7 @@
         <v>399</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>401</v>
@@ -10033,7 +10040,7 @@
         <v>407</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>409</v>
@@ -10080,7 +10087,7 @@
         <v>415</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>22</v>
@@ -10127,7 +10134,7 @@
         <v>424</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>426</v>
@@ -10174,7 +10181,7 @@
         <v>433</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>22</v>
@@ -10232,10 +10239,10 @@
         <v>Coral Sea Islands</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>25</v>
@@ -10267,7 +10274,7 @@
         <v>442</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>444</v>
@@ -10314,7 +10321,7 @@
         <v>450</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>452</v>
@@ -10361,7 +10368,7 @@
         <v>459</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>461</v>
@@ -10408,7 +10415,7 @@
         <v>467</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>469</v>
@@ -10455,7 +10462,7 @@
         <v>474</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>476</v>
@@ -10502,7 +10509,7 @@
         <v>482</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>484</v>
@@ -10549,7 +10556,7 @@
         <v>490</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>492</v>
@@ -10596,7 +10603,7 @@
         <v>497</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>499</v>
@@ -10654,10 +10661,10 @@
         <v>Dhekelia</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>25</v>
@@ -10689,7 +10696,7 @@
         <v>507</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>509</v>
@@ -10736,7 +10743,7 @@
         <v>515</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>517</v>
@@ -10783,7 +10790,7 @@
         <v>522</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>22</v>
@@ -10830,7 +10837,7 @@
         <v>529</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>531</v>
@@ -10877,7 +10884,7 @@
         <v>537</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>539</v>
@@ -10924,7 +10931,7 @@
         <v>544</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>546</v>
@@ -10971,7 +10978,7 @@
         <v>552</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>554</v>
@@ -11018,7 +11025,7 @@
         <v>560</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>562</v>
@@ -11065,7 +11072,7 @@
         <v>568</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>570</v>
@@ -11112,7 +11119,7 @@
         <v>576</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>578</v>
@@ -11159,7 +11166,7 @@
         <v>584</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>586</v>
@@ -11217,10 +11224,10 @@
         <v>Europa Island</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>2030</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>2031</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>2032</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>25</v>
@@ -11252,7 +11259,7 @@
         <v>594</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>22</v>
@@ -11299,7 +11306,7 @@
         <v>602</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>22</v>
@@ -11346,7 +11353,7 @@
         <v>609</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>611</v>
@@ -11393,7 +11400,7 @@
         <v>617</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>619</v>
@@ -11440,7 +11447,7 @@
         <v>625</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>627</v>
@@ -11487,7 +11494,7 @@
         <v>635</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>22</v>
@@ -11496,13 +11503,13 @@
         <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>636</v>
@@ -11534,7 +11541,7 @@
         <v>640</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>22</v>
@@ -11581,7 +11588,7 @@
         <v>647</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>22</v>
@@ -11628,7 +11635,7 @@
         <v>654</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>22</v>
@@ -11675,7 +11682,7 @@
         <v>663</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>665</v>
@@ -11722,7 +11729,7 @@
         <v>671</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>673</v>
@@ -11769,7 +11776,7 @@
         <v>682</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>683</v>
@@ -11816,7 +11823,7 @@
         <v>690</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>22</v>
@@ -11863,7 +11870,7 @@
         <v>697</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>699</v>
@@ -11910,7 +11917,7 @@
         <v>705</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>707</v>
@@ -11957,7 +11964,7 @@
         <v>713</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>22</v>
@@ -12015,10 +12022,10 @@
         <v>Glorioso Islands</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>25</v>
@@ -12050,7 +12057,7 @@
         <v>722</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>724</v>
@@ -12097,7 +12104,7 @@
         <v>731</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>22</v>
@@ -12144,7 +12151,7 @@
         <v>738</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>22</v>
@@ -12191,7 +12198,7 @@
         <v>745</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>22</v>
@@ -12238,7 +12245,7 @@
         <v>752</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>22</v>
@@ -12285,7 +12292,7 @@
         <v>759</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>761</v>
@@ -12332,7 +12339,7 @@
         <v>767</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>22</v>
@@ -12379,7 +12386,7 @@
         <v>775</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>777</v>
@@ -12426,7 +12433,7 @@
         <v>783</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>785</v>
@@ -12473,7 +12480,7 @@
         <v>791</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>793</v>
@@ -12520,7 +12527,7 @@
         <v>799</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>801</v>
@@ -12567,7 +12574,7 @@
         <v>806</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>22</v>
@@ -12614,7 +12621,7 @@
         <v>814</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>22</v>
@@ -12661,7 +12668,7 @@
         <v>822</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>824</v>
@@ -12708,7 +12715,7 @@
         <v>830</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>832</v>
@@ -12766,10 +12773,10 @@
         <v>Howland Island</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K114" s="5" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>25</v>
@@ -12801,7 +12808,7 @@
         <v>839</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>838</v>
@@ -12848,7 +12855,7 @@
         <v>845</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>847</v>
@@ -12895,7 +12902,7 @@
         <v>853</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>855</v>
@@ -12942,7 +12949,7 @@
         <v>860</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>862</v>
@@ -12989,7 +12996,7 @@
         <v>868</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>870</v>
@@ -13036,7 +13043,7 @@
         <v>875</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>877</v>
@@ -13083,7 +13090,7 @@
         <v>882</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>22</v>
@@ -13130,7 +13137,7 @@
         <v>889</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>22</v>
@@ -13177,7 +13184,7 @@
         <v>896</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>898</v>
@@ -13224,7 +13231,7 @@
         <v>903</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>905</v>
@@ -13271,7 +13278,7 @@
         <v>911</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>22</v>
@@ -13329,10 +13336,10 @@
         <v>Jan Mayen</v>
       </c>
       <c r="J126" s="1" t="s">
+        <v>2036</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>2037</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>2038</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>25</v>
@@ -13364,7 +13371,7 @@
         <v>922</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>22</v>
@@ -13422,10 +13429,10 @@
         <v>Jarvis Island</v>
       </c>
       <c r="J128" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="K128" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="L128" s="1" t="s">
         <v>25</v>
@@ -13457,7 +13464,7 @@
         <v>930</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>22</v>
@@ -13515,10 +13522,10 @@
         <v>Johnston Atoll</v>
       </c>
       <c r="J130" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="K130" s="5" t="s">
         <v>2000</v>
-      </c>
-      <c r="K130" s="5" t="s">
-        <v>2001</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>25</v>
@@ -13550,7 +13557,7 @@
         <v>939</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>941</v>
@@ -13608,10 +13615,10 @@
         <v>Juan de Nova Island</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="L132" s="1" t="s">
         <v>25</v>
@@ -13643,7 +13650,7 @@
         <v>949</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>951</v>
@@ -13690,7 +13697,7 @@
         <v>957</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>959</v>
@@ -13748,10 +13755,10 @@
         <v>Kingman Reef</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="K135" s="5" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>25</v>
@@ -13783,7 +13790,7 @@
         <v>967</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>969</v>
@@ -13830,7 +13837,7 @@
         <v>975</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>977</v>
@@ -13877,7 +13884,7 @@
         <v>984</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>22</v>
@@ -13969,7 +13976,7 @@
         <v>998</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>1000</v>
@@ -14016,7 +14023,7 @@
         <v>1005</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>1007</v>
@@ -14063,7 +14070,7 @@
         <v>1013</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>22</v>
@@ -14110,7 +14117,7 @@
         <v>1020</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>1022</v>
@@ -14157,7 +14164,7 @@
         <v>1028</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>1030</v>
@@ -14204,7 +14211,7 @@
         <v>1035</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>1037</v>
@@ -14251,7 +14258,7 @@
         <v>1043</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>1045</v>
@@ -14298,7 +14305,7 @@
         <v>1051</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>1050</v>
@@ -14345,7 +14352,7 @@
         <v>1058</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>1060</v>
@@ -14392,7 +14399,7 @@
         <v>1066</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>1068</v>
@@ -14439,7 +14446,7 @@
         <v>1073</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>1075</v>
@@ -14486,7 +14493,7 @@
         <v>1081</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>1083</v>
@@ -14533,7 +14540,7 @@
         <v>1090</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>1092</v>
@@ -14580,7 +14587,7 @@
         <v>1098</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>1100</v>
@@ -14627,7 +14634,7 @@
         <v>1106</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>22</v>
@@ -14674,7 +14681,7 @@
         <v>1113</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>1115</v>
@@ -14721,7 +14728,7 @@
         <v>1121</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>1123</v>
@@ -14768,7 +14775,7 @@
         <v>1129</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>1131</v>
@@ -14815,7 +14822,7 @@
         <v>1137</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>1139</v>
@@ -14862,7 +14869,7 @@
         <v>1145</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>22</v>
@@ -14909,7 +14916,7 @@
         <v>1152</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>1154</v>
@@ -14956,7 +14963,7 @@
         <v>1160</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>1162</v>
@@ -15003,7 +15010,7 @@
         <v>1168</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>22</v>
@@ -15050,7 +15057,7 @@
         <v>1175</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>1177</v>
@@ -15097,7 +15104,7 @@
         <v>1182</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>1184</v>
@@ -15155,10 +15162,10 @@
         <v>Midway Islands</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K165" s="5" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="L165" s="1" t="s">
         <v>25</v>
@@ -15190,7 +15197,7 @@
         <v>1193</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>1195</v>
@@ -15237,7 +15244,7 @@
         <v>1201</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>1203</v>
@@ -15284,7 +15291,7 @@
         <v>1209</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>22</v>
@@ -15331,7 +15338,7 @@
         <v>1215</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>1214</v>
@@ -15378,7 +15385,7 @@
         <v>1222</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>22</v>
@@ -15425,7 +15432,7 @@
         <v>1229</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>1231</v>
@@ -15472,7 +15479,7 @@
         <v>1236</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>1238</v>
@@ -15520,7 +15527,7 @@
         <v>MMR</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>22</v>
@@ -15570,7 +15577,7 @@
         <v>1245</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>1247</v>
@@ -15617,7 +15624,7 @@
         <v>1253</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>1255</v>
@@ -15675,10 +15682,10 @@
         <v>Navassa Island</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="L176" s="1" t="s">
         <v>25</v>
@@ -15710,7 +15717,7 @@
         <v>1263</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>1265</v>
@@ -15757,7 +15764,7 @@
         <v>1271</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>1273</v>
@@ -15804,7 +15811,7 @@
         <v>1279</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>22</v>
@@ -15851,7 +15858,7 @@
         <v>1286</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>22</v>
@@ -15898,7 +15905,7 @@
         <v>1293</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>1295</v>
@@ -15945,7 +15952,7 @@
         <v>1300</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>1302</v>
@@ -15992,7 +15999,7 @@
         <v>1308</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>1310</v>
@@ -16039,7 +16046,7 @@
         <v>1316</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>1315</v>
@@ -16086,7 +16093,7 @@
         <v>1323</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>22</v>
@@ -16133,7 +16140,7 @@
         <v>1330</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>1332</v>
@@ -16180,7 +16187,7 @@
         <v>1339</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>1341</v>
@@ -16227,7 +16234,7 @@
         <v>1347</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>1349</v>
@@ -16274,7 +16281,7 @@
         <v>1354</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>1356</v>
@@ -16321,7 +16328,7 @@
         <v>1361</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>1363</v>
@@ -16368,7 +16375,7 @@
         <v>1368</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>1370</v>
@@ -16426,10 +16433,10 @@
         <v>Palmyra Atoll</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L192" s="1" t="s">
         <v>25</v>
@@ -16461,7 +16468,7 @@
         <v>1378</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>1380</v>
@@ -16508,7 +16515,7 @@
         <v>1386</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>1388</v>
@@ -16566,10 +16573,10 @@
         <v>Paracel Islands</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="L195" s="1" t="s">
         <v>25</v>
@@ -16601,7 +16608,7 @@
         <v>1396</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>1398</v>
@@ -16648,7 +16655,7 @@
         <v>1403</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>1405</v>
@@ -16695,7 +16702,7 @@
         <v>1411</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>1413</v>
@@ -16742,7 +16749,7 @@
         <v>1419</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>22</v>
@@ -16789,7 +16796,7 @@
         <v>1426</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>1428</v>
@@ -16836,7 +16843,7 @@
         <v>1434</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>1436</v>
@@ -16883,7 +16890,7 @@
         <v>1441</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>22</v>
@@ -16930,7 +16937,7 @@
         <v>1447</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>1449</v>
@@ -16977,7 +16984,7 @@
         <v>1455</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>22</v>
@@ -17024,7 +17031,7 @@
         <v>1463</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>22</v>
@@ -17071,7 +17078,7 @@
         <v>1470</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>22</v>
@@ -17118,7 +17125,7 @@
         <v>1477</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>1479</v>
@@ -17165,7 +17172,7 @@
         <v>1485</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>22</v>
@@ -17212,7 +17219,7 @@
         <v>1494</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>22</v>
@@ -17259,7 +17266,7 @@
         <v>1503</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>22</v>
@@ -17306,7 +17313,7 @@
         <v>1511</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>22</v>
@@ -17353,7 +17360,7 @@
         <v>1519</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>22</v>
@@ -17400,7 +17407,7 @@
         <v>1527</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>22</v>
@@ -17447,7 +17454,7 @@
         <v>1535</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>22</v>
@@ -17494,7 +17501,7 @@
         <v>1543</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>1545</v>
@@ -17541,7 +17548,7 @@
         <v>1551</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>1553</v>
@@ -17588,7 +17595,7 @@
         <v>1559</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>1561</v>
@@ -17635,7 +17642,7 @@
         <v>1568</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>1570</v>
@@ -17682,7 +17689,7 @@
         <v>1576</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>1578</v>
@@ -17729,7 +17736,7 @@
         <v>1584</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>1586</v>
@@ -17776,7 +17783,7 @@
         <v>1592</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>1594</v>
@@ -17823,7 +17830,7 @@
         <v>1600</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>1602</v>
@@ -17870,7 +17877,7 @@
         <v>1608</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>1610</v>
@@ -17917,7 +17924,7 @@
         <v>1615</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>1617</v>
@@ -17964,7 +17971,7 @@
         <v>1623</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>1625</v>
@@ -18011,7 +18018,7 @@
         <v>1630</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>1632</v>
@@ -18058,7 +18065,7 @@
         <v>1638</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>22</v>
@@ -18105,7 +18112,7 @@
         <v>1645</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>1647</v>
@@ -18152,7 +18159,7 @@
         <v>1653</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>1655</v>
@@ -18199,7 +18206,7 @@
         <v>1660</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>22</v>
@@ -18246,7 +18253,7 @@
         <v>1668</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>1670</v>
@@ -18293,7 +18300,7 @@
         <v>1676</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>1678</v>
@@ -18351,10 +18358,10 @@
         <v>Spratly Islands</v>
       </c>
       <c r="J233" s="1" t="s">
+        <v>2021</v>
+      </c>
+      <c r="K233" s="1" t="s">
         <v>2022</v>
-      </c>
-      <c r="K233" s="1" t="s">
-        <v>2023</v>
       </c>
       <c r="L233" s="1" t="s">
         <v>25</v>
@@ -18386,7 +18393,7 @@
         <v>1685</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>1687</v>
@@ -18433,7 +18440,7 @@
         <v>1693</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>1695</v>
@@ -18480,7 +18487,7 @@
         <v>1701</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>1703</v>
@@ -18527,7 +18534,7 @@
         <v>919</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>22</v>
@@ -18574,7 +18581,7 @@
         <v>1718</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>1720</v>
@@ -18621,7 +18628,7 @@
         <v>1725</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>1727</v>
@@ -18668,7 +18675,7 @@
         <v>1732</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>22</v>
@@ -18715,7 +18722,7 @@
         <v>1739</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>1741</v>
@@ -18762,7 +18769,7 @@
         <v>1747</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>1749</v>
@@ -18809,7 +18816,7 @@
         <v>1755</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>1757</v>
@@ -18856,7 +18863,7 @@
         <v>1763</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>1765</v>
@@ -18903,7 +18910,7 @@
         <v>1771</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>1773</v>
@@ -18950,7 +18957,7 @@
         <v>1779</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>1781</v>
@@ -18997,7 +19004,7 @@
         <v>1786</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>22</v>
@@ -19044,7 +19051,7 @@
         <v>1793</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>1795</v>
@@ -19091,7 +19098,7 @@
         <v>1801</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>1803</v>
@@ -19149,10 +19156,10 @@
         <v>Tromelin Island</v>
       </c>
       <c r="J250" s="1" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K250" s="5" t="s">
         <v>2027</v>
-      </c>
-      <c r="K250" s="5" t="s">
-        <v>2028</v>
       </c>
       <c r="L250" s="1" t="s">
         <v>25</v>
@@ -19184,7 +19191,7 @@
         <v>1812</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>1814</v>
@@ -19218,44 +19225,44 @@
       <c r="A252">
         <v>250</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="B252" s="7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>1819</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>2270</v>
+      </c>
+      <c r="G252" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>2271</v>
-      </c>
-      <c r="G252" s="1" t="s">
+      <c r="H252" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="I252" s="1" t="s">
         <v>1822</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>1822</v>
-      </c>
-      <c r="I252" s="1" t="s">
+      <c r="J252" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="J252" s="1" t="s">
+      <c r="K252" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L252" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="K252" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="L252" s="1" t="s">
+      <c r="M252" s="1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="N252" s="1" t="s">
         <v>1825</v>
-      </c>
-      <c r="M252" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>1826</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>22</v>
@@ -19266,43 +19273,43 @@
         <v>251</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>2271</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="J253" s="1" t="s">
         <v>1829</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>2272</v>
-      </c>
-      <c r="G253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I253" s="1" t="s">
+      <c r="K253" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>1831</v>
+      </c>
+      <c r="M253" s="1" t="s">
         <v>1827</v>
       </c>
-      <c r="J253" s="1" t="s">
-        <v>1830</v>
-      </c>
-      <c r="K253" s="1" t="s">
-        <v>1831</v>
-      </c>
-      <c r="L253" s="1" t="s">
+      <c r="N253" s="1" t="s">
         <v>1832</v>
-      </c>
-      <c r="M253" s="1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="N253" s="1" t="s">
-        <v>1833</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>22</v>
@@ -19313,43 +19320,43 @@
         <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>2272</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I254" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="E254" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="F254" s="6" t="s">
-        <v>2273</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I254" s="1" t="s">
+      <c r="J254" s="1" t="s">
         <v>1837</v>
       </c>
-      <c r="J254" s="1" t="s">
+      <c r="K254" s="1" t="s">
         <v>1838</v>
       </c>
-      <c r="K254" s="1" t="s">
+      <c r="L254" s="1" t="s">
         <v>1839</v>
       </c>
-      <c r="L254" s="1" t="s">
+      <c r="M254" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="N254" s="1" t="s">
         <v>1840</v>
-      </c>
-      <c r="M254" s="1" t="s">
-        <v>1835</v>
-      </c>
-      <c r="N254" s="1" t="s">
-        <v>1841</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>22</v>
@@ -19360,43 +19367,43 @@
         <v>253</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>1842</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>1843</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J255" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="E255" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>2274</v>
-      </c>
-      <c r="G255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I255" s="1" t="s">
+      <c r="K255" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="M255" s="1" t="s">
         <v>1842</v>
       </c>
-      <c r="J255" s="1" t="s">
-        <v>1845</v>
-      </c>
-      <c r="K255" s="1" t="s">
-        <v>1846</v>
-      </c>
-      <c r="L255" s="1" t="s">
+      <c r="N255" s="1" t="s">
         <v>1847</v>
-      </c>
-      <c r="M255" s="1" t="s">
-        <v>1843</v>
-      </c>
-      <c r="N255" s="1" t="s">
-        <v>1848</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>22</v>
@@ -19407,43 +19414,43 @@
         <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>1850</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>2274</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>2275</v>
-      </c>
-      <c r="G256" s="1" t="s">
+      <c r="H256" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J256" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>1852</v>
-      </c>
-      <c r="I256" s="1" t="s">
+      <c r="K256" s="1" t="s">
+        <v>1853</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>1854</v>
+      </c>
+      <c r="M256" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="J256" s="1" t="s">
-        <v>1853</v>
-      </c>
-      <c r="K256" s="1" t="s">
-        <v>1854</v>
-      </c>
-      <c r="L256" s="1" t="s">
+      <c r="N256" s="1" t="s">
         <v>1855</v>
-      </c>
-      <c r="M256" s="1" t="s">
-        <v>1850</v>
-      </c>
-      <c r="N256" s="1" t="s">
-        <v>1856</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>22</v>
@@ -19454,43 +19461,43 @@
         <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>1858</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>1856</v>
+      </c>
+      <c r="J257" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F257" s="6" t="s">
-        <v>2276</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I257" s="1" t="s">
+      <c r="K257" s="1" t="s">
+        <v>1860</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="M257" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="J257" s="1" t="s">
-        <v>1860</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>1861</v>
-      </c>
-      <c r="L257" s="1" t="s">
+      <c r="N257" s="1" t="s">
         <v>1862</v>
-      </c>
-      <c r="M257" s="1" t="s">
-        <v>1858</v>
-      </c>
-      <c r="N257" s="1" t="s">
-        <v>1863</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>22</v>
@@ -19501,43 +19508,43 @@
         <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>1865</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="J258" s="1" t="s">
         <v>1866</v>
       </c>
-      <c r="E258" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="F258" s="6" t="s">
-        <v>2277</v>
-      </c>
-      <c r="G258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I258" s="1" t="s">
+      <c r="K258" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="M258" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="J258" s="1" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L258" s="1" t="s">
+      <c r="N258" s="1" t="s">
         <v>1869</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="N258" s="1" t="s">
-        <v>1870</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>22</v>
@@ -19548,46 +19555,46 @@
         <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>1871</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G259" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="E259" s="1" t="s">
-        <v>1872</v>
-      </c>
-      <c r="F259" s="6" t="s">
-        <v>2278</v>
-      </c>
-      <c r="G259" s="1" t="s">
-        <v>1874</v>
-      </c>
       <c r="H259" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>772</v>
       </c>
       <c r="J259" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="K259" s="1" t="s">
         <v>1875</v>
       </c>
-      <c r="K259" s="1" t="s">
+      <c r="L259" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="L259" s="1" t="s">
+      <c r="M259" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="N259" s="1" t="s">
         <v>1877</v>
       </c>
-      <c r="M259" s="1" t="s">
-        <v>1872</v>
-      </c>
-      <c r="N259" s="1" t="s">
+      <c r="O259" s="1" t="s">
         <v>1878</v>
-      </c>
-      <c r="O259" s="1" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
@@ -19595,43 +19602,43 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G260" s="1" t="s">
         <v>1882</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="H260" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="I260" s="1" t="s">
         <v>1881</v>
       </c>
-      <c r="F260" s="6" t="s">
-        <v>2279</v>
-      </c>
-      <c r="G260" s="1" t="s">
+      <c r="J260" s="1" t="s">
         <v>1883</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>1883</v>
-      </c>
-      <c r="I260" s="1" t="s">
-        <v>1882</v>
-      </c>
-      <c r="J260" s="1" t="s">
+      <c r="K260" s="1" t="s">
         <v>1884</v>
       </c>
-      <c r="K260" s="1" t="s">
+      <c r="L260" s="1" t="s">
         <v>1885</v>
       </c>
-      <c r="L260" s="1" t="s">
+      <c r="M260" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="N260" s="1" t="s">
         <v>1886</v>
-      </c>
-      <c r="M260" s="1" t="s">
-        <v>1881</v>
-      </c>
-      <c r="N260" s="1" t="s">
-        <v>1887</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>22</v>
@@ -19642,19 +19649,19 @@
         <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>22</v>
@@ -19663,25 +19670,25 @@
         <v>22</v>
       </c>
       <c r="I261" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="J261" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="J261" s="1" t="s">
+      <c r="K261" s="1" t="s">
         <v>1891</v>
       </c>
-      <c r="K261" s="1" t="s">
+      <c r="L261" s="1" t="s">
         <v>1892</v>
-      </c>
-      <c r="L261" s="1" t="s">
-        <v>1893</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>25</v>
       </c>
       <c r="N261" s="1" t="s">
+        <v>1893</v>
+      </c>
+      <c r="O261" s="1" t="s">
         <v>1894</v>
-      </c>
-      <c r="O261" s="1" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.35">
@@ -19689,43 +19696,43 @@
         <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>1897</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>2280</v>
+      </c>
+      <c r="G262" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="F262" s="6" t="s">
-        <v>2281</v>
-      </c>
-      <c r="G262" s="1" t="s">
+      <c r="H262" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J262" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>1899</v>
-      </c>
-      <c r="I262" s="1" t="s">
+      <c r="K262" s="1" t="s">
+        <v>1900</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="M262" s="1" t="s">
         <v>1896</v>
       </c>
-      <c r="J262" s="1" t="s">
-        <v>1900</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>1901</v>
-      </c>
-      <c r="L262" s="1" t="s">
+      <c r="N262" s="1" t="s">
         <v>1902</v>
-      </c>
-      <c r="M262" s="1" t="s">
-        <v>1897</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>1903</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>22</v>
@@ -19736,43 +19743,43 @@
         <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G263" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="E263" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>2282</v>
-      </c>
-      <c r="G263" s="1" t="s">
+      <c r="H263" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="J263" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>1907</v>
-      </c>
-      <c r="I263" s="1" t="s">
+      <c r="K263" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="M263" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="J263" s="1" t="s">
-        <v>1908</v>
-      </c>
-      <c r="K263" s="1" t="s">
-        <v>1909</v>
-      </c>
-      <c r="L263" s="1" t="s">
+      <c r="N263" s="1" t="s">
         <v>1910</v>
-      </c>
-      <c r="M263" s="1" t="s">
-        <v>1905</v>
-      </c>
-      <c r="N263" s="1" t="s">
-        <v>1911</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>22</v>
@@ -19783,43 +19790,43 @@
         <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>2282</v>
+      </c>
+      <c r="G264" s="1" t="s">
         <v>1914</v>
       </c>
-      <c r="E264" s="1" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F264" s="6" t="s">
-        <v>2283</v>
-      </c>
-      <c r="G264" s="1" t="s">
+      <c r="H264" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="J264" s="1" t="s">
         <v>1915</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>1915</v>
-      </c>
-      <c r="I264" s="1" t="s">
+      <c r="K264" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="M264" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="J264" s="1" t="s">
-        <v>1916</v>
-      </c>
-      <c r="K264" s="1" t="s">
-        <v>1917</v>
-      </c>
-      <c r="L264" s="1" t="s">
+      <c r="N264" s="1" t="s">
         <v>1918</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>1913</v>
-      </c>
-      <c r="N264" s="1" t="s">
-        <v>1919</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>22</v>
@@ -19830,43 +19837,43 @@
         <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>1921</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>2283</v>
+      </c>
+      <c r="G265" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="E265" s="1" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>2284</v>
-      </c>
-      <c r="G265" s="1" t="s">
+      <c r="H265" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="J265" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="H265" s="1" t="s">
-        <v>1923</v>
-      </c>
-      <c r="I265" s="1" t="s">
+      <c r="K265" s="1" t="s">
+        <v>1924</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="M265" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="J265" s="1" t="s">
-        <v>1924</v>
-      </c>
-      <c r="K265" s="1" t="s">
-        <v>1925</v>
-      </c>
-      <c r="L265" s="1" t="s">
+      <c r="N265" s="1" t="s">
         <v>1926</v>
-      </c>
-      <c r="M265" s="1" t="s">
-        <v>1921</v>
-      </c>
-      <c r="N265" s="1" t="s">
-        <v>1927</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>22</v>
@@ -19877,43 +19884,43 @@
         <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>1929</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>2284</v>
+      </c>
+      <c r="G266" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="E266" s="1" t="s">
-        <v>1929</v>
-      </c>
-      <c r="F266" s="6" t="s">
-        <v>2285</v>
-      </c>
-      <c r="G266" s="1" t="s">
+      <c r="H266" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="J266" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="H266" s="1" t="s">
+      <c r="K266" s="1" t="s">
         <v>1931</v>
       </c>
-      <c r="I266" s="1" t="s">
+      <c r="L266" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="M266" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="J266" s="1" t="s">
-        <v>1932</v>
-      </c>
-      <c r="K266" s="1" t="s">
-        <v>1932</v>
-      </c>
-      <c r="L266" s="1" t="s">
+      <c r="N266" s="1" t="s">
         <v>1933</v>
-      </c>
-      <c r="M266" s="1" t="s">
-        <v>1929</v>
-      </c>
-      <c r="N266" s="1" t="s">
-        <v>1934</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>22</v>
@@ -19924,43 +19931,43 @@
         <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>1935</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G267" s="1" t="s">
         <v>1937</v>
       </c>
-      <c r="E267" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="F267" s="6" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G267" s="1" t="s">
+      <c r="H267" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="I267" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="H267" s="1" t="s">
-        <v>1938</v>
-      </c>
-      <c r="I267" s="1" t="s">
+      <c r="J267" s="1" t="s">
         <v>1939</v>
       </c>
-      <c r="J267" s="1" t="s">
+      <c r="K267" s="1" t="s">
         <v>1940</v>
       </c>
-      <c r="K267" s="1" t="s">
+      <c r="L267" s="1" t="s">
         <v>1941</v>
       </c>
-      <c r="L267" s="1" t="s">
+      <c r="M267" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="N267" s="1" t="s">
         <v>1942</v>
-      </c>
-      <c r="M267" s="1" t="s">
-        <v>1936</v>
-      </c>
-      <c r="N267" s="1" t="s">
-        <v>1943</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>22</v>
@@ -19971,7 +19978,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>25</v>
@@ -19984,7 +19991,7 @@
         <v>VGB</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>22</v>
@@ -20014,7 +20021,7 @@
         <v>271</v>
       </c>
       <c r="O268" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.35">
@@ -20022,20 +20029,20 @@
         <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="E269" s="1" t="str">
         <f>VLOOKUP(Country_Data_Codes_ext[[#This Row],[alpha_2]],D:E,2,FALSE)</f>
         <v>VIR</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>22</v>
@@ -20062,10 +20069,10 @@
         <v>25</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.35">
@@ -20073,10 +20080,10 @@
         <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>1948</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>1949</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>22</v>
@@ -20096,10 +20103,10 @@
         <v>Wake Island</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="L270" s="1" t="s">
         <v>25</v>
@@ -20119,43 +20126,43 @@
         <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I271" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F271" s="6" t="s">
-        <v>2287</v>
-      </c>
-      <c r="G271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I271" s="1" t="s">
+      <c r="J271" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="J271" s="1" t="s">
+      <c r="K271" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="K271" s="1" t="s">
+      <c r="L271" s="1" t="s">
         <v>1955</v>
       </c>
-      <c r="L271" s="1" t="s">
+      <c r="M271" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="N271" s="1" t="s">
         <v>1956</v>
-      </c>
-      <c r="M271" s="1" t="s">
-        <v>1951</v>
-      </c>
-      <c r="N271" s="1" t="s">
-        <v>1957</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>22</v>
@@ -20166,10 +20173,10 @@
         <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>1958</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>1959</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>681</v>
@@ -20178,7 +20185,7 @@
         <v>682</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>683</v>
@@ -20213,43 +20220,43 @@
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>1960</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1961</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>1962</v>
       </c>
-      <c r="E273" s="1" t="s">
+      <c r="F273" s="6" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="J273" s="1" t="s">
         <v>1963</v>
       </c>
-      <c r="F273" s="6" t="s">
-        <v>2288</v>
-      </c>
-      <c r="G273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>1960</v>
-      </c>
-      <c r="J273" s="1" t="s">
+      <c r="K273" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="L273" s="1" t="s">
         <v>1964</v>
       </c>
-      <c r="K273" s="1" t="s">
-        <v>1964</v>
-      </c>
-      <c r="L273" s="1" t="s">
+      <c r="M273" s="1" t="s">
+        <v>1962</v>
+      </c>
+      <c r="N273" s="1" t="s">
         <v>1965</v>
-      </c>
-      <c r="M273" s="1" t="s">
-        <v>1963</v>
-      </c>
-      <c r="N273" s="1" t="s">
-        <v>1966</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>22</v>
@@ -20260,7 +20267,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>25</v>
@@ -20273,7 +20280,7 @@
         <v>WSM</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>22</v>
@@ -20303,7 +20310,7 @@
         <v>1549</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.35">
@@ -20311,16 +20318,16 @@
         <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="F275" s="6"/>
       <c r="G275" s="1" t="s">
@@ -20334,7 +20341,7 @@
         <v>World</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="K275" s="1" t="str">
         <f>Country_Data_Codes_ext[[#This Row],[name_CLDR_zh-Hans]]</f>
@@ -20350,7 +20357,7 @@
         <v>25</v>
       </c>
       <c r="O275" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.35">
@@ -20358,43 +20365,43 @@
         <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>1972</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>2288</v>
+      </c>
+      <c r="G276" s="1" t="s">
         <v>1973</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="F276" s="6" t="s">
-        <v>2289</v>
-      </c>
-      <c r="G276" s="1" t="s">
+      <c r="H276" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J276" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="H276" s="1" t="s">
-        <v>1974</v>
-      </c>
-      <c r="I276" s="1" t="s">
+      <c r="K276" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="M276" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="J276" s="1" t="s">
-        <v>1975</v>
-      </c>
-      <c r="K276" s="1" t="s">
-        <v>1976</v>
-      </c>
-      <c r="L276" s="1" t="s">
+      <c r="N276" s="1" t="s">
         <v>1977</v>
-      </c>
-      <c r="M276" s="1" t="s">
-        <v>1972</v>
-      </c>
-      <c r="N276" s="1" t="s">
-        <v>1978</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>22</v>
@@ -20405,7 +20412,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>25</v>
@@ -20418,7 +20425,7 @@
         <v>COD</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>22</v>
@@ -20448,7 +20455,7 @@
         <v>25</v>
       </c>
       <c r="O277" s="1" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.35">
@@ -20456,43 +20463,43 @@
         <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>2289</v>
+      </c>
+      <c r="G278" s="1" t="s">
         <v>1983</v>
       </c>
-      <c r="E278" s="1" t="s">
-        <v>1982</v>
-      </c>
-      <c r="F278" s="6" t="s">
-        <v>2290</v>
-      </c>
-      <c r="G278" s="1" t="s">
+      <c r="H278" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="J278" s="1" t="s">
         <v>1984</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>1984</v>
-      </c>
-      <c r="I278" s="1" t="s">
+      <c r="K278" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="M278" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="J278" s="1" t="s">
-        <v>1985</v>
-      </c>
-      <c r="K278" s="1" t="s">
-        <v>1986</v>
-      </c>
-      <c r="L278" s="1" t="s">
+      <c r="N278" s="1" t="s">
         <v>1987</v>
-      </c>
-      <c r="M278" s="1" t="s">
-        <v>1982</v>
-      </c>
-      <c r="N278" s="1" t="s">
-        <v>1988</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>22</v>
@@ -20503,43 +20510,43 @@
         <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>1990</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>2290</v>
+      </c>
+      <c r="G279" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="E279" s="1" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F279" s="6" t="s">
-        <v>2291</v>
-      </c>
-      <c r="G279" s="1" t="s">
+      <c r="H279" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J279" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="H279" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="I279" s="1" t="s">
+      <c r="K279" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="M279" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="J279" s="1" t="s">
-        <v>1993</v>
-      </c>
-      <c r="K279" s="1" t="s">
-        <v>1994</v>
-      </c>
-      <c r="L279" s="1" t="s">
+      <c r="N279" s="1" t="s">
         <v>1995</v>
-      </c>
-      <c r="M279" s="1" t="s">
-        <v>1990</v>
-      </c>
-      <c r="N279" s="1" t="s">
-        <v>1996</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>22</v>
